--- a/Underdetection_France/data_surveillance/breakdown_declared_onset_SIDEP.xlsx
+++ b/Underdetection_France/data_surveillance/breakdown_declared_onset_SIDEP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura Di Domenico\Dropbox\my_coronavirus\project_interventions\SEEIR python model\REPORTS\report_F_detection_rate\database_SIDEP\5_underdetection_with_multinomial\delay_onset_testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura Di Domenico\Dropbox\my_coronavirus\project_interventions\SEEIR python model\REPORTS\report_F_detection_rate\database_SIDEP\5_REVISION\positivity_rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D395C3-64CB-489D-9708-983D362B02E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F79DC67-538B-483A-80C4-C5D7E17F0644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9324" yWindow="918" windowWidth="11712" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8178" yWindow="648" windowWidth="14736" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>week</t>
   </si>
   <si>
-    <t>% of cases w/ onset 0-1 day before test</t>
+    <t>% of cases w/ onset 0-1 days before test</t>
   </si>
   <si>
     <t>% of cases w/ onset 2-4 days before test</t>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -478,13 +478,13 @@
         <v>27.5</v>
       </c>
       <c r="D2">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E2">
         <v>11.9</v>
       </c>
       <c r="F2">
-        <v>34.799999999999997</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -492,19 +492,19 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C3">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="D3">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E3">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>31.9</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -512,19 +512,19 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="C4">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="D4">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="E4">
         <v>9.1999999999999993</v>
       </c>
       <c r="F4">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -535,16 +535,16 @@
         <v>15.4</v>
       </c>
       <c r="C5">
-        <v>34.5</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="D5">
-        <v>16.399999999999999</v>
+        <v>16.3</v>
       </c>
       <c r="E5">
         <v>9.6999999999999993</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -552,13 +552,13 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="C6">
         <v>36.799999999999997</v>
       </c>
       <c r="D6">
-        <v>18.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E6">
         <v>5.7</v>
@@ -572,7 +572,7 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="C7">
         <v>48.5</v>
@@ -581,10 +581,10 @@
         <v>22.2</v>
       </c>
       <c r="E7">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="F7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -592,13 +592,13 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C8">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="D8">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E8">
         <v>1</v>
